--- a/results/bc_bizdevops_eval_2024_june.xlsx
+++ b/results/bc_bizdevops_eval_2024_june.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillermo\Dropbox\wip\Eval. BC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B0A640-D485-44D1-A271-96013D370368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ACB73E-939E-4C9A-B6EE-31306ACB5EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{049A1C8A-2321-4F08-A37D-72F0DD6F89EB}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="242">
   <si>
     <t>Contact</t>
   </si>
@@ -484,9 +484,6 @@
     <t>RAW Data</t>
   </si>
   <si>
-    <t>Total general</t>
-  </si>
-  <si>
     <t>Total Academic</t>
   </si>
   <si>
@@ -595,9 +592,6 @@
     <t>TOTAL WEIGHTING</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>Sample Standard Deviation</t>
   </si>
   <si>
@@ -620,9 +614,6 @@
   </si>
   <si>
     <t>Versión</t>
-  </si>
-  <si>
-    <t>Varianza</t>
   </si>
   <si>
     <t>VARLK01</t>
@@ -1003,39 +994,6 @@
     <t>DevOps Experience</t>
   </si>
   <si>
-    <t>AVG LK01</t>
-  </si>
-  <si>
-    <t>AVG LK02</t>
-  </si>
-  <si>
-    <t>AVG LK03</t>
-  </si>
-  <si>
-    <t>AVG LK04</t>
-  </si>
-  <si>
-    <t>AVG LK05</t>
-  </si>
-  <si>
-    <t>AVG LK07</t>
-  </si>
-  <si>
-    <t>AVG LK06</t>
-  </si>
-  <si>
-    <t>AVG LK08</t>
-  </si>
-  <si>
-    <t>AVG LK09</t>
-  </si>
-  <si>
-    <t>AVG LK10</t>
-  </si>
-  <si>
-    <t>AVG LK11</t>
-  </si>
-  <si>
     <t>IT/Business Alignment Experience</t>
   </si>
   <si>
@@ -1054,9 +1012,6 @@
     <t>5. More than 10 years</t>
   </si>
   <si>
-    <t>Total/AVG</t>
-  </si>
-  <si>
     <t>EA Experience</t>
   </si>
   <si>
@@ -1135,7 +1090,10 @@
     <t>The main findings of this work</t>
   </si>
   <si>
-    <t>Organization Area</t>
+    <t>v LK11</t>
+  </si>
+  <si>
+    <t>Variance</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1433,295 @@
     <cellStyle name="Título 3" xfId="3" builtinId="18"/>
     <cellStyle name="Total" xfId="4" builtinId="25"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="104">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
@@ -6418,7 +6664,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C815DCA3-F8A8-4A7D-8F91-24364902CCA9}" name="TablaDinámica7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sample ID">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C815DCA3-F8A8-4A7D-8F91-24364902CCA9}" name="TablaDinámica7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sample ID">
   <location ref="B57:F69" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
@@ -6550,7 +6796,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A49A1926-6B73-3748-BDBE-F5AFC7116AA2}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total/Mean" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Organization Area">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A49A1926-6B73-3748-BDBE-F5AFC7116AA2}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total/Mean" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sector">
   <location ref="B28:N31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="38">
     <pivotField numFmtId="14" showAll="0"/>
@@ -6688,7 +6934,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DFEA93E-9E3C-4253-A61E-360533D97C58}" name="TablaDinámica6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sample ID">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DFEA93E-9E3C-4253-A61E-360533D97C58}" name="TablaDinámica6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sample ID">
   <location ref="B44:F55" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
@@ -6817,7 +7063,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73FAF6A4-2045-4803-A176-4230FB3357E1}" name="TablaDinámica4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sample ID">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73FAF6A4-2045-4803-A176-4230FB3357E1}" name="TablaDinámica4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sample ID">
   <location ref="B18:F29" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
@@ -6946,7 +7192,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B985232-BF39-40EF-967A-127DBE5082F6}" name="TablaDinámica5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sample ID">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B985232-BF39-40EF-967A-127DBE5082F6}" name="TablaDinámica5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sample ID">
   <location ref="B31:F42" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
@@ -7284,7 +7530,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2B2A98B-8031-4AFC-953F-8DDF88832A91}" name="TablaDinámica28" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total/AVG" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DevOps Experience">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2B2A98B-8031-4AFC-953F-8DDF88832A91}" name="TablaDinámica28" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total/Mean" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DevOps Experience">
   <location ref="B2:N8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="38">
     <pivotField numFmtId="14" showAll="0"/>
@@ -7410,20 +7656,20 @@
   </colItems>
   <dataFields count="12">
     <dataField name="# Answers" fld="2" subtotal="count" baseField="5" baseItem="2"/>
-    <dataField name="AVG LK01" fld="16" subtotal="average" baseField="3" baseItem="0" numFmtId="165"/>
-    <dataField name="AVG LK02" fld="17" subtotal="average" baseField="3" baseItem="0" numFmtId="165"/>
-    <dataField name="AVG LK03" fld="18" subtotal="average" baseField="3" baseItem="0" numFmtId="165"/>
-    <dataField name="AVG LK04" fld="19" subtotal="average" baseField="5" baseItem="0" numFmtId="165"/>
-    <dataField name="AVG LK05" fld="20" subtotal="average" baseField="5" baseItem="5" numFmtId="165"/>
-    <dataField name="AVG LK07" fld="22" subtotal="average" baseField="5" baseItem="5" numFmtId="165"/>
-    <dataField name="AVG LK06" fld="21" subtotal="average" baseField="5" baseItem="5" numFmtId="165"/>
-    <dataField name="AVG LK08" fld="23" subtotal="average" baseField="5" baseItem="6" numFmtId="165"/>
-    <dataField name="AVG LK09" fld="24" subtotal="average" baseField="5" baseItem="5" numFmtId="165"/>
-    <dataField name="AVG LK10" fld="25" subtotal="average" baseField="5" baseItem="6" numFmtId="165"/>
-    <dataField name="AVG LK11" fld="26" subtotal="average" baseField="5" baseItem="7" numFmtId="165"/>
+    <dataField name="Mean LK01" fld="16" subtotal="average" baseField="3" baseItem="0" numFmtId="165"/>
+    <dataField name="Mean LK02" fld="17" subtotal="average" baseField="3" baseItem="0" numFmtId="165"/>
+    <dataField name="Mean LK03" fld="18" subtotal="average" baseField="3" baseItem="0" numFmtId="165"/>
+    <dataField name="Mean LK04" fld="19" subtotal="average" baseField="5" baseItem="0" numFmtId="165"/>
+    <dataField name="Mean LK05" fld="20" subtotal="average" baseField="5" baseItem="5" numFmtId="165"/>
+    <dataField name="Mean LK07" fld="22" subtotal="average" baseField="5" baseItem="5" numFmtId="165"/>
+    <dataField name="Mean LK06" fld="21" subtotal="average" baseField="5" baseItem="5" numFmtId="165"/>
+    <dataField name="Mean LK08" fld="23" subtotal="average" baseField="5" baseItem="6" numFmtId="165"/>
+    <dataField name="Mean LK09" fld="24" subtotal="average" baseField="5" baseItem="5" numFmtId="165"/>
+    <dataField name="Mean LK10" fld="25" subtotal="average" baseField="5" baseItem="6" numFmtId="165"/>
+    <dataField name="v LK11" fld="26" subtotal="average" baseField="5" baseItem="7" numFmtId="165"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="7">
+    <format dxfId="103">
       <pivotArea field="3" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1">
         <references count="1">
           <reference field="4294967294" count="7" selected="0">
@@ -7438,7 +7684,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="102">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7447,7 +7693,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="101">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7456,7 +7702,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="100">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7465,7 +7711,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="99">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7474,7 +7720,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="98">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7483,7 +7729,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="97">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7492,7 +7738,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="96">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8130,7 +8376,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8160,7 +8406,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="48">
         <v>45444</v>
@@ -8180,47 +8426,47 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8228,7 +8474,7 @@
         <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -8257,13 +8503,13 @@
   <sheetData>
     <row r="1" spans="1:38" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>104</v>
@@ -9739,7 +9985,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>27</v>
@@ -9838,7 +10084,7 @@
   <dimension ref="B2:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9874,13 +10120,13 @@
         <v>14</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
         <v>149</v>
-      </c>
-      <c r="E2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -9981,25 +10227,25 @@
         <v>14</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
         <v>152</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" t="s">
         <v>153</v>
       </c>
-      <c r="G10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>154</v>
-      </c>
-      <c r="J10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -10166,13 +10412,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -10202,7 +10448,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -10246,7 +10492,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -10282,7 +10528,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -10290,7 +10536,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -10304,13 +10550,13 @@
         <v>14</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -10340,7 +10586,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -10384,7 +10630,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -10420,7 +10666,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -10428,7 +10674,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F42">
         <v>14</v>
@@ -10442,13 +10688,13 @@
         <v>14</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -10478,7 +10724,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -10522,7 +10768,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -10558,7 +10804,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -10566,7 +10812,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F55">
         <v>14</v>
@@ -10580,13 +10826,13 @@
         <v>14</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -10616,7 +10862,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F60">
         <v>5</v>
@@ -10660,7 +10906,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -10704,7 +10950,7 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F68">
         <v>3</v>
@@ -10712,7 +10958,7 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F69">
         <v>14</v>
@@ -10728,7 +10974,7 @@
   <dimension ref="B2:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10741,51 +10987,51 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N2" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="O2" s="47" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -10830,7 +11076,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -10875,7 +11121,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -10920,7 +11166,7 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -10965,7 +11211,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -11010,7 +11256,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -11061,51 +11307,51 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" t="s">
         <v>222</v>
       </c>
-      <c r="C11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I11" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" t="s">
-        <v>236</v>
-      </c>
-      <c r="K11" t="s">
-        <v>237</v>
-      </c>
       <c r="L11" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M11" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N11" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="O11" s="47" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -11150,7 +11396,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -11195,7 +11441,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -11240,7 +11486,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -11285,7 +11531,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -11336,51 +11582,51 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F19" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G19" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="H19" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="I19" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="J19" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K19" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N19" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="O19" s="47" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -11425,7 +11671,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -11470,7 +11716,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -11515,7 +11761,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -11560,7 +11806,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -11605,7 +11851,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C25">
         <v>14</v>
@@ -11656,46 +11902,46 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="H28" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="I28" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="J28" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N28" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="O28" s="47" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
@@ -11790,7 +12036,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C31">
         <v>14</v>
@@ -11842,8 +12088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97627F8D-DA90-45C6-BB3A-F2A0E888A83E}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11857,7 +12103,7 @@
         <v>103</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>117</v>
@@ -12469,7 +12715,7 @@
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B16" s="39">
         <f>COUNT(B2:B15)</f>
@@ -12504,7 +12750,7 @@
     </row>
     <row r="18" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
@@ -12545,28 +12791,28 @@
     </row>
     <row r="20" spans="1:13" s="21" customFormat="1" ht="34.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E20" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="F20" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>171</v>
-      </c>
       <c r="G20" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -12991,7 +13237,7 @@
     </row>
     <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" s="50"/>
       <c r="D33" s="50"/>
@@ -13022,22 +13268,22 @@
     </row>
     <row r="35" spans="1:8" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D35" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="F35" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>171</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -13377,22 +13623,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -13726,13 +13972,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="6"/>
@@ -13742,7 +13988,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -13755,7 +14001,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -13768,7 +14014,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C24" s="6">
         <v>0.5</v>
@@ -13804,8 +14050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A913BC0C-E827-4BE5-BA94-82BB045B4BC9}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13818,7 +14064,7 @@
         <v>103</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>117</v>
@@ -13854,7 +14100,7 @@
         <v>127</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -14489,7 +14735,7 @@
     </row>
     <row r="16" spans="1:14" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B16" s="40">
         <f>COUNT(B2:B15)</f>
@@ -14506,7 +14752,7 @@
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N16" s="41">
         <f>SUM(N2:N15)</f>
@@ -14516,7 +14762,7 @@
     <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
@@ -14527,7 +14773,7 @@
     <row r="19" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -14554,28 +14800,28 @@
     </row>
     <row r="21" spans="1:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="E21" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>171</v>
-      </c>
       <c r="G21" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -14944,7 +15190,7 @@
     <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="52"/>
@@ -14954,7 +15200,7 @@
     <row r="35" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="50"/>
       <c r="D35" s="50"/>
@@ -14980,22 +15226,22 @@
     </row>
     <row r="37" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D37" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="F37" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -15292,28 +15538,28 @@
     </row>
     <row r="52" spans="1:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B52" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="D52" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="E52" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="F52" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F52" s="20" t="s">
-        <v>171</v>
-      </c>
       <c r="G52" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -15648,7 +15894,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B64" s="28">
         <f>POWER(B$82-$H53, 2)*B53</f>
@@ -15678,7 +15924,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B65" s="28">
         <f t="shared" ref="B65:F74" si="26">POWER(B$82-$H54, 2)*B54</f>
@@ -15708,7 +15954,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B66" s="28">
         <f t="shared" si="26"/>
@@ -15738,7 +15984,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B67" s="28">
         <f t="shared" si="26"/>
@@ -15768,7 +16014,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B68" s="28">
         <f t="shared" si="26"/>
@@ -15798,7 +16044,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B69" s="28">
         <f t="shared" si="26"/>
@@ -15828,7 +16074,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B70" s="28">
         <f t="shared" si="26"/>
@@ -15858,7 +16104,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B71" s="28">
         <f t="shared" si="26"/>
@@ -15888,7 +16134,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B72" s="28">
         <f t="shared" si="26"/>
@@ -15918,7 +16164,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B73" s="28">
         <f t="shared" si="26"/>
@@ -15948,7 +16194,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B74" s="28">
         <f t="shared" si="26"/>
@@ -16005,7 +16251,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>129</v>
@@ -16014,12 +16260,12 @@
         <v>130</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>104</v>
@@ -16028,12 +16274,12 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>105</v>
@@ -16042,12 +16288,12 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>106</v>
@@ -16056,12 +16302,12 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>107</v>
@@ -16070,12 +16316,12 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>108</v>
@@ -16084,12 +16330,12 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>109</v>
@@ -16098,12 +16344,12 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>110</v>
@@ -16112,12 +16358,12 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>111</v>
@@ -16126,12 +16372,12 @@
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>112</v>
@@ -16140,12 +16386,12 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>113</v>
@@ -16154,12 +16400,12 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>114</v>
@@ -16168,12 +16414,12 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>115</v>
@@ -16182,12 +16428,12 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>116</v>
@@ -16196,12 +16442,12 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>117</v>
@@ -16210,12 +16456,12 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>118</v>
@@ -16224,12 +16470,12 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>119</v>
@@ -16238,12 +16484,12 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>120</v>
@@ -16252,12 +16498,12 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>121</v>
@@ -16266,12 +16512,12 @@
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>122</v>
@@ -16280,12 +16526,12 @@
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>123</v>
@@ -16294,12 +16540,12 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>124</v>
@@ -16308,12 +16554,12 @@
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>125</v>
@@ -16322,12 +16568,12 @@
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>126</v>
@@ -16336,12 +16582,12 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>127</v>
@@ -16350,12 +16596,12 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>131</v>
@@ -16364,12 +16610,12 @@
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>132</v>
@@ -16378,12 +16624,12 @@
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>133</v>
@@ -16392,12 +16638,12 @@
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>134</v>
@@ -16406,12 +16652,12 @@
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>135</v>
@@ -16420,12 +16666,12 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>136</v>
@@ -16434,12 +16680,12 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>137</v>
@@ -16448,12 +16694,12 @@
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>138</v>
@@ -16462,12 +16708,12 @@
         <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>139</v>
@@ -16476,12 +16722,12 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>140</v>
@@ -16490,12 +16736,12 @@
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>141</v>
@@ -16504,7 +16750,7 @@
         <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -18849,27 +19095,27 @@
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
